--- a/biology/Botanique/Calamites/Calamites.xlsx
+++ b/biology/Botanique/Calamites/Calamites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calamites est un genre de plantes fossiles du groupe des Sphenophyta, proches des prêles. Comme ces dernières, Calamites possède des tiges articulées et des feuilles parfois réduites, verticillées. Le genre a vécu au Carbonifère il y a environ entre 360 à 300 Ma (millions d'années).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arborescents, les Calamites formaient des arbres de taille moyenne, plus ou moins ramifiés, de 10 mètres de hauteur, avec un tronc d'un mètre de diamètre. Le tronc pouvait s'épaissir, le bois secondaire était composé de trachéides scalariformes aérolées, d'éléments de soutien, de parenchyme de réserve. Ces arbres constituaient la principale essence du sous-étage arbustif des marais du Carbonifère à l'origine de la formation de la houille.
 Les troncs érigés se connectaient à un rhizome souterrain épais.
